--- a/Quiz_4.xlsx
+++ b/Quiz_4.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janan/Downloads/Quiz_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janan/Documents/Quiz_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,10 +26,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Subject Descriptor</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Country/Series-specific Notes</t>
+  </si>
+  <si>
+    <t>Estimates Start After</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Gross domestic product, deflator</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>See notes for:  Gross domestic product, constant prices (National currency) Gross domestic product, current prices (National currency).</t>
+  </si>
+  <si>
+    <t>Inflation, average consumer prices</t>
+  </si>
+  <si>
+    <t>Source: National Statistics Office. Formally, the State Statistics Service of Ukraine Latest actual data: 2017. Starting in 2014, data excludes Crimea and Sevastopol. Harmonized prices: No Frequency of source data: Monthly Base year: 1991 Primary domestic currency: Ukrainian hryvnia Data last updated: 03/2019</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>Percent of total labor force</t>
+  </si>
+  <si>
+    <t>Source: Haver Analytics. Formally, the State Statistics Committee of Ukraine Latest actual data: 2017. Starting in 2014, data excludes Crimea and Sevastopol.  Data officially published for 2013 have been recalculated by the IMF staff to exclude Crimea and Sevastopol to ensure a comparable base going forward. Employment type: National definition Primary domestic currency: Ukrainian hryvnia Data last updated: 03/2019</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,8 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +137,1283 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0564546788988544"/>
+          <c:y val="0.0271954028403465"/>
+          <c:w val="0.720304112571607"/>
+          <c:h val="0.917984858535313"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inflation, average consumer prices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$AL$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1309.958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63334.923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>627768.338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.992861513E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.394047462E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25094487E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.912117432E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.480039412E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.087167313E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2171795749E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2263987489E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2902927666E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.406887102E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5971002719E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7420464785E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9657766633E7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4611788741E7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8524973495E7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1196306171E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3678925086E7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3869340554E7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3780943689E7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7868272905E7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6303884053E7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4137482214E7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3401082835E7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1436069322E7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7973432345E7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3146541881E7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8255421478E7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03397186077E8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.08619131315E8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.14042869577E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$AL$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.917</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.146</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114.201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>123.103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.866</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>206.748</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242.096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>295.288</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>324.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>360.989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>399.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>431.119</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>461.963</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>493.877</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>527.195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="641886768"/>
+        <c:axId val="552544896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="641886768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inflation, average consumer prices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552544896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552544896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gross domestic product, deflator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641886768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>935055</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125605</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01399</cdr:x>
+      <cdr:y>0.46437</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09035</cdr:x>
+      <cdr:y>0.61499</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="167472" y="2819121"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +1679,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="35" width="13.1640625" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" customWidth="1"/>
+    <col min="37" max="37" width="14.83203125" customWidth="1"/>
+    <col min="38" max="38" width="14.5" customWidth="1"/>
+    <col min="39" max="39" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1992</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1993</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1994</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1995</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1996</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1997</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1998</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1999</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.35</v>
+      </c>
+      <c r="I2">
+        <v>6.9589999999999996</v>
+      </c>
+      <c r="J2">
+        <v>11.542999999999999</v>
+      </c>
+      <c r="K2">
+        <v>13.654</v>
+      </c>
+      <c r="L2">
+        <v>15.281000000000001</v>
+      </c>
+      <c r="M2">
+        <v>19.469000000000001</v>
+      </c>
+      <c r="N2">
+        <v>23.962</v>
+      </c>
+      <c r="O2">
+        <v>26.338000000000001</v>
+      </c>
+      <c r="P2">
+        <v>27.733000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>30.001000000000001</v>
+      </c>
+      <c r="R2">
+        <v>34.593000000000004</v>
+      </c>
+      <c r="S2">
+        <v>42.917000000000002</v>
+      </c>
+      <c r="T2">
+        <v>49.277999999999999</v>
+      </c>
+      <c r="U2">
+        <v>60.542999999999999</v>
+      </c>
+      <c r="V2">
+        <v>78.146000000000001</v>
+      </c>
+      <c r="W2">
+        <v>87.977999999999994</v>
+      </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>114.20099999999999</v>
+      </c>
+      <c r="Z2">
+        <v>123.10299999999999</v>
+      </c>
+      <c r="AA2">
+        <v>128.44200000000001</v>
+      </c>
+      <c r="AB2">
+        <v>148.86600000000001</v>
+      </c>
+      <c r="AC2">
+        <v>206.74799999999999</v>
+      </c>
+      <c r="AD2">
+        <v>242.096</v>
+      </c>
+      <c r="AE2">
+        <v>295.28800000000001</v>
+      </c>
+      <c r="AF2">
+        <v>324.75</v>
+      </c>
+      <c r="AG2">
+        <v>360.98899999999998</v>
+      </c>
+      <c r="AH2">
+        <v>399.45</v>
+      </c>
+      <c r="AI2">
+        <v>431.11900000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>461.96300000000002</v>
+      </c>
+      <c r="AK2">
+        <v>493.87700000000001</v>
+      </c>
+      <c r="AL2">
+        <v>527.19500000000005</v>
+      </c>
+      <c r="AM2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1309.9580000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>63334.923000000003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>627768.33799999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2992861.5129999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5394047.4620000003</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6250944.8700000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6912117.432</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8480039.4120000005</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10871673.130000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12171795.749</v>
+      </c>
+      <c r="P3" s="1">
+        <v>12263987.489</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12902927.665999999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>14068871.02</v>
+      </c>
+      <c r="S3" s="1">
+        <v>15971002.719000001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>17420464.785</v>
+      </c>
+      <c r="U3" s="1">
+        <v>19657766.633000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>24611788.741</v>
+      </c>
+      <c r="W3" s="1">
+        <v>28524973.495000001</v>
+      </c>
+      <c r="X3" s="1">
+        <v>31196306.171</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>33678925.086000003</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>33869340.553999998</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>33780943.689000003</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>37868272.905000001</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>56303884.053000003</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>64137482.214000002</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>73401082.834999993</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>81436069.321999997</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>87973432.344999999</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>93146541.880999997</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>98255421.478</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>103397186.07700001</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>108619131.315</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>114042869.57700001</v>
+      </c>
+      <c r="AM3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>14.8</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L4">
+        <v>11.3</v>
+      </c>
+      <c r="M4">
+        <v>11.9</v>
+      </c>
+      <c r="N4">
+        <v>11.483000000000001</v>
+      </c>
+      <c r="O4">
+        <v>10.789</v>
+      </c>
+      <c r="P4">
+        <v>9.6289999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>9.0570000000000004</v>
+      </c>
+      <c r="R4">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="S4">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="T4">
+        <v>6.81</v>
+      </c>
+      <c r="U4">
+        <v>6.351</v>
+      </c>
+      <c r="V4">
+        <v>6.3630000000000004</v>
+      </c>
+      <c r="W4">
+        <v>8.843</v>
+      </c>
+      <c r="X4">
+        <v>8.0969999999999995</v>
+      </c>
+      <c r="Y4">
+        <v>7.8559999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>7.1719999999999997</v>
+      </c>
+      <c r="AB4">
+        <v>9.2750000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>9.1430000000000007</v>
+      </c>
+      <c r="AD4">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AE4">
+        <v>9.65</v>
+      </c>
+      <c r="AF4">
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>8.5229999999999997</v>
+      </c>
+      <c r="AH4">
+        <v>8.06</v>
+      </c>
+      <c r="AI4">
+        <v>7.6059999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="AL4">
+        <v>6.26</v>
+      </c>
+      <c r="AM4">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>